--- a/pred_ohlcv/54_21/2020-01-25 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-25.70010127</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-30.42620127000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-41.81010127</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-48.87450127</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-44.53150127000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-45.54010127000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-92.46992307000001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-73.60912307000001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-21.95822307000003</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-6.667423070000027</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6.647423070000027</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4.898423070000026</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-8.749723070000027</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-25.70010127</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-30.30010127000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-21.95822307000003</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-6.667423070000027</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6.647423070000027</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4.898423070000026</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3.110576929999974</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-8.749723070000027</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-8.833923070000026</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-8.833923070000026</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-17.73392307000002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-17.66392307000002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-16.30722307000002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
